--- a/Projects/CCNAYARMX/Data/CC Nayar Template v0.3.xlsx
+++ b/Projects/CCNAYARMX/Data/CC Nayar Template v0.3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,6 +22,7 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$L$60</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$L$60</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$L$60</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="249">
   <si>
     <t xml:space="preserve">KPI Number</t>
   </si>
@@ -982,6 +983,15 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿La plataforma está libre de objetos diferentes al portafolio válido-Comidas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿La plataforma está libre de objetos diferentes al portafolio válido-Plat. Dinámicas 1?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿La plataforma está libre de objetos diferentes al portafolio válido-Plat. Dinámicas 2 ?</t>
   </si>
   <si>
     <t xml:space="preserve">Numerator Value</t>
@@ -1351,7 +1361,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="82">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1628,10 +1638,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
@@ -1657,10 +1663,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1772,24 +1774,24 @@
   <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+      <selection pane="bottomLeft" activeCell="B55" activeCellId="0" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.6396761133603"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.7044534412956"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.919028340081"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="47.7732793522267"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="44.7773279352227"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="31.0647773279352"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.6396761133603"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.8178137651822"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.0242914979757"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.2429149797571"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="48.2024291497976"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="45.0971659919028"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="31.3846153846154"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
@@ -3414,7 +3416,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="12" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.6720647773279"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -3450,13 +3452,13 @@
         <v>180</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>181</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>10</v>
@@ -3465,7 +3467,7 @@
         <v>11</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3820,11 +3822,12 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.0971659919028"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="11" min="6" style="0" width="46.4898785425101"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.4210526315789"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="11" min="6" style="0" width="46.8097165991903"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.3522267206478"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="9.10526315789474"/>
@@ -3936,27 +3939,28 @@
   </sheetPr>
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="56.4534412955466"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="44.9919028340081"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="52.914979757085"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="26.6720647773279"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.5627530364372"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="56.8785425101215"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="45.417004048583"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="53.3441295546559"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="26.8866396761134"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.7773279352227"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.2105263157895"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.2834008097166"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="12.5344129554656"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -4107,7 +4111,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="41.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="46" t="n">
         <v>22</v>
       </c>
@@ -4159,7 +4163,7 @@
       </c>
       <c r="R4" s="53"/>
     </row>
-    <row r="5" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="41.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="46" t="n">
         <v>25</v>
       </c>
@@ -4208,7 +4212,7 @@
       </c>
       <c r="Q5" s="53"/>
     </row>
-    <row r="6" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="41.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="46" t="n">
         <v>27</v>
       </c>
@@ -4257,7 +4261,7 @@
       </c>
       <c r="Q6" s="53"/>
     </row>
-    <row r="7" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="41.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="46" t="n">
         <v>30</v>
       </c>
@@ -4306,7 +4310,7 @@
       </c>
       <c r="Q7" s="53"/>
     </row>
-    <row r="8" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="28.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="46" t="n">
         <v>31</v>
       </c>
@@ -4356,7 +4360,7 @@
         <v>44</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>137</v>
+        <v>203</v>
       </c>
       <c r="C9" s="47" t="s">
         <v>137</v>
@@ -4396,12 +4400,12 @@
       </c>
       <c r="Q9" s="53"/>
     </row>
-    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="46" t="n">
         <v>49</v>
       </c>
       <c r="B10" s="47" t="s">
-        <v>137</v>
+        <v>204</v>
       </c>
       <c r="C10" s="47" t="s">
         <v>137</v>
@@ -4446,7 +4450,7 @@
         <v>54</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>137</v>
+        <v>205</v>
       </c>
       <c r="C11" s="47" t="s">
         <v>137</v>
@@ -4545,13 +4549,13 @@
         <v>180</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>181</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>10</v>
@@ -4560,7 +4564,7 @@
         <v>11</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="176" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4579,7 +4583,7 @@
         <v>38</v>
       </c>
       <c r="G2" s="60" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>39</v>
@@ -4605,7 +4609,7 @@
         <v>38</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="H3" s="23" t="s">
         <v>72</v>
@@ -4630,7 +4634,7 @@
         <v>38</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="H4" s="23" t="s">
         <v>72</v>
@@ -4655,7 +4659,7 @@
         <v>38</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="H5" s="23" t="s">
         <v>72</v>
@@ -4691,16 +4695,17 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.74898785425101"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="27.5303643724696"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="27.7449392712551"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.3522267206478"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.10526315789474"/>
@@ -4729,7 +4734,7 @@
         <v>160</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>6</v>
@@ -4753,7 +4758,7 @@
         <v>182</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>10</v>
@@ -4775,22 +4780,22 @@
         <v>33</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G2" s="37" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H2" s="60" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="J2" s="51" t="s">
         <v>184</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>173</v>
@@ -4829,17 +4834,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.0971659919028"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="57.9514170040486"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.5263157894737"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="58.4858299595142"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.6761133603239"/>
@@ -4863,19 +4869,19 @@
         <v>160</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>191</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>7</v>
@@ -4884,13 +4890,13 @@
         <v>180</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>181</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>10</v>
@@ -4899,7 +4905,7 @@
         <v>11</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4923,7 +4929,7 @@
         <v>54</v>
       </c>
       <c r="H2" s="62" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="I2" s="62" t="s">
         <v>192</v>
@@ -4931,10 +4937,10 @@
       <c r="J2" s="62"/>
       <c r="K2" s="25"/>
       <c r="L2" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>20</v>
@@ -4958,10 +4964,10 @@
       </c>
       <c r="F3" s="61"/>
       <c r="G3" s="24" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H3" s="62" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="I3" s="62" t="s">
         <v>192</v>
@@ -4969,10 +4975,10 @@
       <c r="J3" s="62"/>
       <c r="K3" s="25"/>
       <c r="L3" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>20</v>
@@ -4996,21 +5002,21 @@
       </c>
       <c r="F4" s="61"/>
       <c r="G4" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="H4" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="H4" s="62" t="s">
-        <v>218</v>
-      </c>
       <c r="I4" s="62" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="J4" s="62"/>
       <c r="K4" s="25"/>
       <c r="L4" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>20</v>
@@ -5034,21 +5040,21 @@
       </c>
       <c r="F5" s="61"/>
       <c r="G5" s="24" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H5" s="62" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="I5" s="62" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="J5" s="62"/>
       <c r="K5" s="25"/>
       <c r="L5" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>20</v>
@@ -5072,21 +5078,21 @@
       </c>
       <c r="F6" s="61"/>
       <c r="G6" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="H6" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="H6" s="62" t="s">
-        <v>218</v>
-      </c>
       <c r="I6" s="62" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="J6" s="62"/>
       <c r="K6" s="25"/>
       <c r="L6" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>20</v>
@@ -5110,21 +5116,21 @@
       </c>
       <c r="F7" s="61"/>
       <c r="G7" s="24" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H7" s="62" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="I7" s="62" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="J7" s="62"/>
       <c r="K7" s="25"/>
       <c r="L7" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>20</v>
@@ -5148,7 +5154,7 @@
       </c>
       <c r="F8" s="61"/>
       <c r="G8" s="24" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H8" s="63"/>
       <c r="I8" s="62" t="s">
@@ -5157,10 +5163,10 @@
       <c r="J8" s="62"/>
       <c r="K8" s="20"/>
       <c r="L8" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="P8" s="0" t="s">
         <v>20</v>
@@ -5181,7 +5187,7 @@
       </c>
       <c r="E9" s="35"/>
       <c r="F9" s="65" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G9" s="66" t="s">
         <v>69</v>
@@ -5190,10 +5196,10 @@
         <v>191</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="P9" s="0" t="s">
         <v>20</v>
@@ -5213,7 +5219,7 @@
         <v>53</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G10" s="23" t="s">
         <v>69</v>
@@ -5223,11 +5229,11 @@
         <v>192</v>
       </c>
       <c r="J10" s="68"/>
-      <c r="L10" s="69" t="s">
-        <v>219</v>
+      <c r="L10" s="68" t="s">
+        <v>222</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="P10" s="0" t="s">
         <v>20</v>
@@ -5247,7 +5253,7 @@
         <v>53</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G11" s="23" t="s">
         <v>69</v>
@@ -5257,11 +5263,11 @@
         <v>198</v>
       </c>
       <c r="J11" s="68"/>
-      <c r="L11" s="69" t="s">
-        <v>219</v>
+      <c r="L11" s="68" t="s">
+        <v>222</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="P11" s="0" t="s">
         <v>20</v>
@@ -5291,17 +5297,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.74898785425101"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.0647773279352"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.6761133603239"/>
@@ -5334,13 +5340,13 @@
         <v>180</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>181</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>10</v>
@@ -5349,7 +5355,7 @@
         <v>11</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="224" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5366,13 +5372,13 @@
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="F2" s="70" t="s">
+        <v>231</v>
+      </c>
+      <c r="F2" s="69" t="s">
         <v>19</v>
       </c>
       <c r="G2" s="8"/>
-      <c r="H2" s="71"/>
+      <c r="H2" s="70"/>
       <c r="L2" s="0" t="s">
         <v>20</v>
       </c>
@@ -5389,11 +5395,11 @@
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
-      <c r="F3" s="70" t="s">
+      <c r="F3" s="69" t="s">
         <v>19</v>
       </c>
       <c r="G3" s="8"/>
-      <c r="H3" s="71"/>
+      <c r="H3" s="70"/>
       <c r="L3" s="0" t="s">
         <v>20</v>
       </c>
@@ -5410,11 +5416,11 @@
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="70" t="s">
+      <c r="F4" s="69" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="8"/>
-      <c r="H4" s="71"/>
+      <c r="H4" s="70"/>
       <c r="L4" s="0" t="s">
         <v>20</v>
       </c>
@@ -5444,16 +5450,16 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="42.0971659919028"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.3157894736842"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="44.9919028340081"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="62.5587044534413"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="47.8825910931174"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="42.4210526315789"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="45.417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="63.0931174089069"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="48.3117408906883"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.6761133603239"/>
@@ -5461,69 +5467,69 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="E1" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="F1" s="72" t="s">
+      <c r="F1" s="71" t="s">
+        <v>211</v>
+      </c>
+      <c r="G1" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="71" t="s">
+        <v>232</v>
+      </c>
+      <c r="I1" s="71" t="s">
+        <v>233</v>
+      </c>
+      <c r="J1" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="71" t="s">
+        <v>180</v>
+      </c>
+      <c r="L1" s="71" t="s">
+        <v>206</v>
+      </c>
+      <c r="M1" s="71" t="s">
+        <v>181</v>
+      </c>
+      <c r="N1" s="71" t="s">
+        <v>207</v>
+      </c>
+      <c r="O1" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="71" t="s">
         <v>208</v>
       </c>
-      <c r="G1" s="72" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="72" t="s">
-        <v>229</v>
-      </c>
-      <c r="I1" s="72" t="s">
-        <v>230</v>
-      </c>
-      <c r="J1" s="72" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="72" t="s">
-        <v>180</v>
-      </c>
-      <c r="L1" s="72" t="s">
-        <v>203</v>
-      </c>
-      <c r="M1" s="72" t="s">
-        <v>181</v>
-      </c>
-      <c r="N1" s="72" t="s">
-        <v>204</v>
-      </c>
-      <c r="O1" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="72" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="72" t="s">
-        <v>205</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="73" t="n">
+      <c r="A2" s="72" t="n">
         <v>38</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="73" t="s">
         <v>117</v>
       </c>
       <c r="C2" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="D2" s="74" t="s">
+      <c r="D2" s="73" t="s">
         <v>119</v>
       </c>
       <c r="E2" s="55"/>
@@ -5547,7 +5553,7 @@
       <c r="Q2" s="53"/>
     </row>
     <row r="3" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="75" t="n">
+      <c r="A3" s="74" t="n">
         <v>41</v>
       </c>
       <c r="B3" s="56" t="s">
@@ -5556,14 +5562,14 @@
       <c r="C3" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="D3" s="76" t="s">
+      <c r="D3" s="75" t="s">
         <v>119</v>
       </c>
       <c r="E3" s="57" t="s">
         <v>121</v>
       </c>
       <c r="F3" s="57" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G3" s="56" t="s">
         <v>128</v>
@@ -5572,7 +5578,7 @@
         <v>171</v>
       </c>
       <c r="I3" s="47" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="J3" s="53"/>
       <c r="K3" s="47" t="s">
@@ -5580,7 +5586,7 @@
       </c>
       <c r="L3" s="53"/>
       <c r="M3" s="47" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="N3" s="53"/>
       <c r="O3" s="53"/>
@@ -5588,7 +5594,7 @@
       <c r="Q3" s="53"/>
     </row>
     <row r="4" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="75" t="n">
+      <c r="A4" s="74" t="n">
         <v>46</v>
       </c>
       <c r="B4" s="56" t="s">
@@ -5597,23 +5603,23 @@
       <c r="C4" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="75" t="s">
         <v>119</v>
       </c>
       <c r="E4" s="57" t="s">
         <v>121</v>
       </c>
       <c r="F4" s="57" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G4" s="56" t="s">
         <v>128</v>
       </c>
       <c r="H4" s="56" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="I4" s="47" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="J4" s="53"/>
       <c r="K4" s="53"/>
@@ -5625,7 +5631,7 @@
       <c r="Q4" s="53"/>
     </row>
     <row r="5" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="75" t="n">
+      <c r="A5" s="74" t="n">
         <v>51</v>
       </c>
       <c r="B5" s="56" t="s">
@@ -5634,23 +5640,23 @@
       <c r="C5" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="75" t="s">
         <v>119</v>
       </c>
       <c r="E5" s="57" t="s">
         <v>121</v>
       </c>
       <c r="F5" s="57" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G5" s="56" t="s">
         <v>128</v>
       </c>
       <c r="H5" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="I5" s="47" t="s">
         <v>235</v>
-      </c>
-      <c r="I5" s="47" t="s">
-        <v>232</v>
       </c>
       <c r="J5" s="53"/>
       <c r="K5" s="53"/>
@@ -5674,18 +5680,18 @@
       <c r="D6" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="E6" s="77" t="s">
-        <v>236</v>
-      </c>
-      <c r="F6" s="78" t="s">
-        <v>237</v>
+      <c r="E6" s="49" t="s">
+        <v>239</v>
+      </c>
+      <c r="F6" s="76" t="s">
+        <v>240</v>
       </c>
       <c r="G6" s="47" t="s">
         <v>156</v>
       </c>
       <c r="H6" s="47"/>
       <c r="I6" s="47" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="J6" s="47"/>
       <c r="K6" s="53"/>
@@ -5713,18 +5719,18 @@
       <c r="D7" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="E7" s="77" t="s">
-        <v>236</v>
-      </c>
-      <c r="F7" s="78" t="s">
-        <v>237</v>
+      <c r="E7" s="49" t="s">
+        <v>239</v>
+      </c>
+      <c r="F7" s="76" t="s">
+        <v>240</v>
       </c>
       <c r="G7" s="47" t="s">
         <v>156</v>
       </c>
       <c r="H7" s="47"/>
       <c r="I7" s="47" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="J7" s="47"/>
       <c r="K7" s="53"/>
@@ -5763,79 +5769,79 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="79" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="79" width="42.0971659919028"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="79" width="37.7044534412955"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="79" width="44.9919028340081"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="79" width="62.5587044534413"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="79" width="44.9919028340081"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="79" width="65.2348178137652"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="79" width="48.417004048583"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="79" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="79" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="79" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="79" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="79" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="79" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="79" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="79" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="79" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="77" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="77" width="42.4210526315789"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="77" width="37.919028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="77" width="45.417004048583"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="77" width="63.0931174089069"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="77" width="45.417004048583"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="77" width="65.7692307692308"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="77" width="48.8461538461539"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="77" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="77" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="77" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="77" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="77" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="77" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="77" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="77" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="77" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="E1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="72" t="s">
+      <c r="F1" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="72" t="s">
+      <c r="G1" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="H1" s="72" t="s">
-        <v>215</v>
-      </c>
-      <c r="I1" s="72" t="s">
+      <c r="H1" s="71" t="s">
+        <v>218</v>
+      </c>
+      <c r="I1" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="72" t="s">
-        <v>229</v>
-      </c>
-      <c r="K1" s="72" t="s">
+      <c r="J1" s="71" t="s">
+        <v>232</v>
+      </c>
+      <c r="K1" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="72" t="s">
+      <c r="L1" s="71" t="s">
         <v>180</v>
       </c>
-      <c r="M1" s="72" t="s">
-        <v>203</v>
-      </c>
-      <c r="N1" s="72" t="s">
+      <c r="M1" s="71" t="s">
+        <v>206</v>
+      </c>
+      <c r="N1" s="71" t="s">
         <v>181</v>
       </c>
-      <c r="O1" s="72" t="s">
-        <v>204</v>
-      </c>
-      <c r="P1" s="72" t="s">
+      <c r="O1" s="71" t="s">
+        <v>207</v>
+      </c>
+      <c r="P1" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="72" t="s">
+      <c r="Q1" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="72" t="s">
-        <v>205</v>
+      <c r="R1" s="71" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5869,18 +5875,18 @@
       <c r="L2" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="M2" s="80"/>
+      <c r="M2" s="78"/>
       <c r="N2" s="47" t="s">
-        <v>233</v>
-      </c>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80" t="s">
+        <v>236</v>
+      </c>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="Q2" s="80" t="s">
+      <c r="Q2" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="R2" s="80"/>
+      <c r="R2" s="78"/>
     </row>
     <row r="3" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="46" t="n">
@@ -5913,18 +5919,18 @@
       <c r="L3" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="M3" s="80"/>
+      <c r="M3" s="78"/>
       <c r="N3" s="47" t="s">
-        <v>233</v>
-      </c>
-      <c r="O3" s="80"/>
-      <c r="P3" s="80" t="s">
+        <v>236</v>
+      </c>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="Q3" s="80" t="s">
+      <c r="Q3" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="R3" s="80"/>
+      <c r="R3" s="78"/>
     </row>
     <row r="4" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="46" t="n">
@@ -5946,7 +5952,7 @@
         <v>105</v>
       </c>
       <c r="G4" s="49" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H4" s="49"/>
       <c r="I4" s="47" t="s">
@@ -5957,18 +5963,18 @@
       <c r="L4" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="M4" s="80"/>
+      <c r="M4" s="78"/>
       <c r="N4" s="47" t="s">
-        <v>233</v>
-      </c>
-      <c r="O4" s="80"/>
-      <c r="P4" s="80" t="s">
+        <v>236</v>
+      </c>
+      <c r="O4" s="78"/>
+      <c r="P4" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="Q4" s="80" t="s">
+      <c r="Q4" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="R4" s="80"/>
+      <c r="R4" s="78"/>
     </row>
     <row r="5" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="46" t="n">
@@ -5990,7 +5996,7 @@
         <v>105</v>
       </c>
       <c r="G5" s="49" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H5" s="49"/>
       <c r="I5" s="47" t="s">
@@ -6001,18 +6007,18 @@
       <c r="L5" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="M5" s="80"/>
+      <c r="M5" s="78"/>
       <c r="N5" s="47" t="s">
-        <v>233</v>
-      </c>
-      <c r="O5" s="80"/>
-      <c r="P5" s="80" t="s">
+        <v>236</v>
+      </c>
+      <c r="O5" s="78"/>
+      <c r="P5" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="Q5" s="80" t="s">
+      <c r="Q5" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="R5" s="80"/>
+      <c r="R5" s="78"/>
     </row>
     <row r="6" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="46" t="n">
@@ -6034,7 +6040,7 @@
         <v>105</v>
       </c>
       <c r="G6" s="49" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H6" s="49"/>
       <c r="I6" s="47" t="s">
@@ -6045,31 +6051,31 @@
       <c r="L6" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="M6" s="80"/>
+      <c r="M6" s="78"/>
       <c r="N6" s="47" t="s">
-        <v>233</v>
-      </c>
-      <c r="O6" s="80"/>
-      <c r="P6" s="80" t="s">
+        <v>236</v>
+      </c>
+      <c r="O6" s="78"/>
+      <c r="P6" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="Q6" s="80" t="s">
+      <c r="Q6" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="R6" s="80"/>
+      <c r="R6" s="78"/>
     </row>
     <row r="7" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="75" t="n">
+      <c r="A7" s="74" t="n">
         <v>42</v>
       </c>
-      <c r="B7" s="76" t="s">
-        <v>239</v>
-      </c>
-      <c r="C7" s="76" t="s">
-        <v>240</v>
+      <c r="B7" s="75" t="s">
+        <v>242</v>
+      </c>
+      <c r="C7" s="75" t="s">
+        <v>243</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E7" s="56" t="s">
         <v>131</v>
@@ -6088,25 +6094,25 @@
         <v>171</v>
       </c>
       <c r="K7" s="56"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81"/>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="81" t="s">
+      <c r="L7" s="79"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="79"/>
+      <c r="O7" s="79"/>
+      <c r="P7" s="79"/>
+      <c r="Q7" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="R7" s="80"/>
+      <c r="R7" s="78"/>
     </row>
     <row r="8" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="75" t="n">
+      <c r="A8" s="74" t="n">
         <v>43</v>
       </c>
-      <c r="B8" s="76" t="s">
-        <v>239</v>
-      </c>
-      <c r="C8" s="76" t="s">
-        <v>240</v>
+      <c r="B8" s="75" t="s">
+        <v>242</v>
+      </c>
+      <c r="C8" s="75" t="s">
+        <v>243</v>
       </c>
       <c r="D8" s="56" t="s">
         <v>133</v>
@@ -6131,26 +6137,26 @@
       <c r="L8" s="56" t="s">
         <v>197</v>
       </c>
-      <c r="M8" s="82"/>
+      <c r="M8" s="80"/>
       <c r="N8" s="56" t="s">
-        <v>233</v>
-      </c>
-      <c r="O8" s="81"/>
-      <c r="P8" s="81"/>
-      <c r="Q8" s="81" t="s">
+        <v>236</v>
+      </c>
+      <c r="O8" s="79"/>
+      <c r="P8" s="79"/>
+      <c r="Q8" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="R8" s="80"/>
+      <c r="R8" s="78"/>
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="75" t="n">
+      <c r="A9" s="74" t="n">
         <v>47</v>
       </c>
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="75" t="s">
         <v>140</v>
       </c>
-      <c r="C9" s="83" t="s">
-        <v>242</v>
+      <c r="C9" s="81" t="s">
+        <v>245</v>
       </c>
       <c r="D9" s="56" t="s">
         <v>144</v>
@@ -6163,34 +6169,34 @@
       </c>
       <c r="G9" s="57"/>
       <c r="H9" s="57" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="I9" s="56" t="s">
         <v>132</v>
       </c>
       <c r="J9" s="56" t="s">
-        <v>234</v>
-      </c>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="81"/>
-      <c r="O9" s="81"/>
-      <c r="P9" s="81"/>
-      <c r="Q9" s="81" t="s">
+        <v>237</v>
+      </c>
+      <c r="K9" s="79"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="79"/>
+      <c r="P9" s="79"/>
+      <c r="Q9" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="R9" s="80"/>
+      <c r="R9" s="78"/>
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="75" t="n">
+      <c r="A10" s="74" t="n">
         <v>48</v>
       </c>
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="75" t="s">
         <v>140</v>
       </c>
-      <c r="C10" s="83" t="s">
-        <v>242</v>
+      <c r="C10" s="81" t="s">
+        <v>245</v>
       </c>
       <c r="D10" s="56" t="s">
         <v>145</v>
@@ -6209,35 +6215,35 @@
         <v>135</v>
       </c>
       <c r="J10" s="56" t="s">
-        <v>234</v>
-      </c>
-      <c r="K10" s="81"/>
-      <c r="L10" s="81" t="s">
+        <v>237</v>
+      </c>
+      <c r="K10" s="79"/>
+      <c r="L10" s="79" t="s">
         <v>197</v>
       </c>
-      <c r="M10" s="81"/>
-      <c r="N10" s="81" t="s">
-        <v>233</v>
-      </c>
-      <c r="O10" s="81"/>
-      <c r="P10" s="81"/>
-      <c r="Q10" s="81" t="s">
+      <c r="M10" s="79"/>
+      <c r="N10" s="79" t="s">
+        <v>236</v>
+      </c>
+      <c r="O10" s="79"/>
+      <c r="P10" s="79"/>
+      <c r="Q10" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="R10" s="80"/>
+      <c r="R10" s="78"/>
     </row>
     <row r="11" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="75" t="n">
+      <c r="A11" s="74" t="n">
         <v>52</v>
       </c>
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="75" t="s">
         <v>149</v>
       </c>
-      <c r="C11" s="76" t="n">
+      <c r="C11" s="75" t="n">
         <v>0.25</v>
       </c>
       <c r="D11" s="56" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E11" s="56" t="s">
         <v>134</v>
@@ -6247,37 +6253,37 @@
       </c>
       <c r="G11" s="57"/>
       <c r="H11" s="57" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="I11" s="56" t="s">
         <v>132</v>
       </c>
       <c r="J11" s="56" t="s">
-        <v>235</v>
-      </c>
-      <c r="K11" s="81"/>
-      <c r="L11" s="81"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="81"/>
-      <c r="O11" s="81"/>
-      <c r="P11" s="81"/>
-      <c r="Q11" s="81" t="s">
+        <v>238</v>
+      </c>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
+      <c r="O11" s="79"/>
+      <c r="P11" s="79"/>
+      <c r="Q11" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="R11" s="80"/>
+      <c r="R11" s="78"/>
     </row>
     <row r="12" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="75" t="n">
+      <c r="A12" s="74" t="n">
         <v>53</v>
       </c>
-      <c r="B12" s="76" t="s">
+      <c r="B12" s="75" t="s">
         <v>149</v>
       </c>
-      <c r="C12" s="76" t="n">
+      <c r="C12" s="75" t="n">
         <v>0.25</v>
       </c>
       <c r="D12" s="56" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E12" s="56" t="s">
         <v>131</v>
@@ -6293,22 +6299,22 @@
         <v>135</v>
       </c>
       <c r="J12" s="56" t="s">
-        <v>235</v>
-      </c>
-      <c r="K12" s="81"/>
-      <c r="L12" s="81" t="s">
+        <v>238</v>
+      </c>
+      <c r="K12" s="79"/>
+      <c r="L12" s="79" t="s">
         <v>197</v>
       </c>
-      <c r="M12" s="81"/>
-      <c r="N12" s="81" t="s">
-        <v>245</v>
-      </c>
-      <c r="O12" s="81"/>
-      <c r="P12" s="81"/>
-      <c r="Q12" s="81" t="s">
+      <c r="M12" s="79"/>
+      <c r="N12" s="79" t="s">
+        <v>248</v>
+      </c>
+      <c r="O12" s="79"/>
+      <c r="P12" s="79"/>
+      <c r="Q12" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="R12" s="80"/>
+      <c r="R12" s="78"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
